--- a/MDT/DienstenCatalogus/BevoegdhedenEenT.xlsx
+++ b/MDT/DienstenCatalogus/BevoegdhedenEenT.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\hjo20125\Git\ampersand-models\MDT\DienstenCatalogus\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-12" yWindow="-12" windowWidth="17160" windowHeight="13176" activeTab="1"/>
   </bookViews>
@@ -12,7 +17,7 @@
     <sheet name="Blad2" sheetId="2" r:id="rId3"/>
     <sheet name="Blad3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -25,7 +30,7 @@
     <author>L.P. van der Hoek</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0">
+    <comment ref="M2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="1">
+    <comment ref="E5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="2">
+    <comment ref="C6" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N6" authorId="0">
+    <comment ref="N6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0">
+    <comment ref="I9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I14" authorId="0">
+    <comment ref="I14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="3">
+    <comment ref="C27" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -217,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F27" authorId="3">
+    <comment ref="F27" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -252,7 +257,7 @@
     <author>L.P. van der Hoek</author>
   </authors>
   <commentList>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -276,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="1">
+    <comment ref="B28" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -529,10 +534,10 @@
     <t>ProcID</t>
   </si>
   <si>
-    <t>nodigVoor~</t>
-  </si>
-  <si>
     <t>BevoegdheidOmschrijving</t>
+  </si>
+  <si>
+    <t>recht</t>
   </si>
 </sst>
 </file>
@@ -701,7 +706,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1"/>
     <cellStyle name="Standaard 3" xfId="2"/>
   </cellStyles>
@@ -711,14 +716,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -756,9 +764,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -793,7 +801,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -828,7 +836,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1047,7 +1055,7 @@
       <c r="M1" s="19"/>
       <c r="N1" s="19"/>
     </row>
-    <row r="2" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>36</v>
       </c>
@@ -1088,7 +1096,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -1112,7 +1120,7 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -1136,7 +1144,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
@@ -1164,7 +1172,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
@@ -1208,7 +1216,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -1232,7 +1240,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1276,7 +1284,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
@@ -1309,7 +1317,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
@@ -1333,7 +1341,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -1372,7 +1380,7 @@
       </c>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -1420,7 +1428,7 @@
       <c r="Z12" s="14"/>
       <c r="AA12" s="14"/>
     </row>
-    <row r="13" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -1483,7 +1491,7 @@
       <c r="Z13" s="13"/>
       <c r="AA13" s="13"/>
     </row>
-    <row r="14" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -1538,7 +1546,7 @@
       <c r="Z14" s="13"/>
       <c r="AA14" s="13"/>
     </row>
-    <row r="15" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -1562,7 +1570,7 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
@@ -1586,7 +1594,7 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -1642,7 +1650,7 @@
         <v>2982</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>14</v>
       </c>
@@ -1670,7 +1678,7 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
@@ -1717,7 +1725,7 @@
         <v>2982</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
@@ -1773,7 +1781,7 @@
         <v>2982</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>14</v>
       </c>
@@ -1804,7 +1812,7 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>14</v>
       </c>
@@ -1848,7 +1856,7 @@
         <v>2982</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>14</v>
       </c>
@@ -1889,7 +1897,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>14</v>
       </c>
@@ -1931,7 +1939,7 @@
       </c>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>14</v>
       </c>
@@ -1973,7 +1981,7 @@
       </c>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>14</v>
       </c>
@@ -2120,7 +2128,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2131,7 +2139,7 @@
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -2142,71 +2150,71 @@
         <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" t="str">
         <f>D1</f>
-        <v>nodigVoor~</v>
+        <v>recht</v>
       </c>
       <c r="F1" t="str">
         <f t="shared" ref="F1:R1" si="0">E1</f>
-        <v>nodigVoor~</v>
+        <v>recht</v>
       </c>
       <c r="G1" t="str">
         <f t="shared" si="0"/>
-        <v>nodigVoor~</v>
+        <v>recht</v>
       </c>
       <c r="H1" t="str">
         <f t="shared" si="0"/>
-        <v>nodigVoor~</v>
+        <v>recht</v>
       </c>
       <c r="I1" t="str">
         <f t="shared" si="0"/>
-        <v>nodigVoor~</v>
+        <v>recht</v>
       </c>
       <c r="J1" t="str">
         <f t="shared" si="0"/>
-        <v>nodigVoor~</v>
+        <v>recht</v>
       </c>
       <c r="K1" t="str">
         <f t="shared" si="0"/>
-        <v>nodigVoor~</v>
+        <v>recht</v>
       </c>
       <c r="L1" t="str">
         <f t="shared" si="0"/>
-        <v>nodigVoor~</v>
+        <v>recht</v>
       </c>
       <c r="M1" t="str">
         <f t="shared" si="0"/>
-        <v>nodigVoor~</v>
+        <v>recht</v>
       </c>
       <c r="N1" t="str">
         <f t="shared" si="0"/>
-        <v>nodigVoor~</v>
+        <v>recht</v>
       </c>
       <c r="O1" t="str">
         <f t="shared" si="0"/>
-        <v>nodigVoor~</v>
+        <v>recht</v>
       </c>
       <c r="P1" t="str">
         <f t="shared" si="0"/>
-        <v>nodigVoor~</v>
+        <v>recht</v>
       </c>
       <c r="Q1" t="str">
         <f t="shared" si="0"/>
-        <v>nodigVoor~</v>
+        <v>recht</v>
       </c>
       <c r="R1" t="str">
         <f t="shared" si="0"/>
-        <v>nodigVoor~</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+        <v>recht</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
@@ -2339,7 +2347,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>61</v>
       </c>
@@ -2410,7 +2418,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>59</v>
       </c>
@@ -2481,7 +2489,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>57</v>
       </c>
@@ -2552,7 +2560,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>55</v>
       </c>
@@ -2623,7 +2631,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>53</v>
       </c>
@@ -2691,7 +2699,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>51</v>
       </c>
@@ -2762,7 +2770,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>49</v>
       </c>
@@ -2833,7 +2841,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -2901,7 +2909,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>45</v>
       </c>
@@ -3185,7 +3193,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>38</v>
       </c>
@@ -3253,7 +3261,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
@@ -3321,7 +3329,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
@@ -3392,7 +3400,7 @@
         <v>2982</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>30</v>
       </c>
@@ -3463,7 +3471,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>28</v>
       </c>
@@ -3534,7 +3542,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>26</v>
       </c>
@@ -3605,7 +3613,7 @@
         <v>2982</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>24</v>
       </c>
@@ -3676,7 +3684,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
@@ -3747,7 +3755,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>20</v>
       </c>
@@ -3818,7 +3826,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>18</v>
       </c>
@@ -3889,7 +3897,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>16</v>
       </c>
@@ -3960,7 +3968,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>13</v>
       </c>

--- a/MDT/DienstenCatalogus/BevoegdhedenEenT.xlsx
+++ b/MDT/DienstenCatalogus/BevoegdhedenEenT.xlsx
@@ -531,13 +531,13 @@
     <t>Systeem</t>
   </si>
   <si>
-    <t>ProcID</t>
-  </si>
-  <si>
     <t>BevoegdheidOmschrijving</t>
   </si>
   <si>
     <t>recht</t>
+  </si>
+  <si>
+    <t>ProcIdent</t>
   </si>
 </sst>
 </file>
@@ -2128,7 +2128,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2150,7 +2150,7 @@
         <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E1" t="str">
         <f>D1</f>
@@ -2214,69 +2214,69 @@
         <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" t="str">
         <f>D2</f>
-        <v>ProcID</v>
+        <v>ProcIdent</v>
       </c>
       <c r="F2" t="str">
         <f t="shared" ref="F2:R2" si="1">E2</f>
-        <v>ProcID</v>
+        <v>ProcIdent</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" si="1"/>
-        <v>ProcID</v>
+        <v>ProcIdent</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" si="1"/>
-        <v>ProcID</v>
+        <v>ProcIdent</v>
       </c>
       <c r="I2" t="str">
         <f t="shared" si="1"/>
-        <v>ProcID</v>
+        <v>ProcIdent</v>
       </c>
       <c r="J2" t="str">
         <f t="shared" si="1"/>
-        <v>ProcID</v>
+        <v>ProcIdent</v>
       </c>
       <c r="K2" t="str">
         <f t="shared" si="1"/>
-        <v>ProcID</v>
+        <v>ProcIdent</v>
       </c>
       <c r="L2" t="str">
         <f t="shared" si="1"/>
-        <v>ProcID</v>
+        <v>ProcIdent</v>
       </c>
       <c r="M2" t="str">
         <f t="shared" si="1"/>
-        <v>ProcID</v>
+        <v>ProcIdent</v>
       </c>
       <c r="N2" t="str">
         <f t="shared" si="1"/>
-        <v>ProcID</v>
+        <v>ProcIdent</v>
       </c>
       <c r="O2" t="str">
         <f t="shared" si="1"/>
-        <v>ProcID</v>
+        <v>ProcIdent</v>
       </c>
       <c r="P2" t="str">
         <f t="shared" si="1"/>
-        <v>ProcID</v>
+        <v>ProcIdent</v>
       </c>
       <c r="Q2" t="str">
         <f t="shared" si="1"/>
-        <v>ProcID</v>
+        <v>ProcIdent</v>
       </c>
       <c r="R2" t="str">
         <f t="shared" si="1"/>
-        <v>ProcID</v>
+        <v>ProcIdent</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">

--- a/MDT/DienstenCatalogus/BevoegdhedenEenT.xlsx
+++ b/MDT/DienstenCatalogus/BevoegdhedenEenT.xlsx
@@ -310,7 +310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="77">
   <si>
     <t>Proc-idents 2315 en 2316 worden i.v.m. meetmiddelen standaard toegevoegd aan gewone KI bedrijven.</t>
   </si>
@@ -531,13 +531,16 @@
     <t>Systeem</t>
   </si>
   <si>
-    <t>BevoegdheidOmschrijving</t>
-  </si>
-  <si>
     <t>recht</t>
   </si>
   <si>
     <t>ProcIdent</t>
+  </si>
+  <si>
+    <t>Erkenning</t>
+  </si>
+  <si>
+    <t>ErkenningOmschrijving</t>
   </si>
 </sst>
 </file>
@@ -2128,7 +2131,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2150,7 +2153,7 @@
         <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E1" t="str">
         <f>D1</f>
@@ -2211,16 +2214,16 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" t="str">
         <f>D2</f>
